--- a/data/vendor_map.xlsx
+++ b/data/vendor_map.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rygarcorp.com\shares\Cornerstone\Dot Com Packing Slips\1-Orders Before Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1E18D49-D6EA-4D90-A436-9A4074A492BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4DF7D4-923C-4CB7-92D6-F0322FE1B63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3510" yWindow="3510" windowWidth="57600" windowHeight="15555" xr2:uid="{2C04AEF6-1DD2-46BE-907B-9745C127F2C9}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="57600" windowHeight="15555" xr2:uid="{2C04AEF6-1DD2-46BE-907B-9745C127F2C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -477,6 +477,12 @@
     <t>Handozer</t>
   </si>
   <si>
+    <t>HomeSelects</t>
+  </si>
+  <si>
+    <t>HomeSelects Cabinets</t>
+  </si>
+  <si>
     <t>MMR</t>
   </si>
   <si>
@@ -562,12 +568,6 @@
   </si>
   <si>
     <t>Model Number</t>
-  </si>
-  <si>
-    <t>Home Selects</t>
-  </si>
-  <si>
-    <t>Zaca</t>
   </si>
 </sst>
 </file>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34B957F-2E4F-4F5D-9C8E-E382ADBC502B}">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,30 +948,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C1" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="E1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="F1" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="G1" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
@@ -1159,161 +1159,161 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>37</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>42</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>46</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>47</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>48</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>49</v>
@@ -1522,1245 +1522,1245 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B52" s="1">
         <v>6102</v>
       </c>
       <c r="C52" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B53" s="1">
         <v>6106</v>
       </c>
       <c r="C53" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>179</v>
+        <v>150</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>180</v>
+        <v>151</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C75" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C83" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C84" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C85" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C88" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
+        <v>173</v>
+      </c>
+      <c r="B90" s="1" t="s">
         <v>171</v>
       </c>
-      <c r="B90" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C90" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C93" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C95" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C99" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C104" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C106" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C107" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C108" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C109" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C111" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C112" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C113" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C114" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C115" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C116" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C117" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C118" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B120" s="1">
         <v>4430</v>
       </c>
       <c r="C120" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B121" s="1">
         <v>4442</v>
       </c>
       <c r="C121" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C122" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B124" s="1">
         <v>4642</v>
       </c>
       <c r="C124" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C125" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B126" s="1">
         <v>4660</v>
       </c>
       <c r="C126" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B127" s="1">
         <v>6630</v>
       </c>
       <c r="C127" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B128" s="1">
         <v>6642</v>
       </c>
       <c r="C128" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C129" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B130" s="1">
         <v>6660</v>
       </c>
       <c r="C130" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C131" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B132" s="1">
         <v>8860</v>
       </c>
       <c r="C132" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C133" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C134" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C135" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C136" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C137" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C138" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C139" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C140" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C141" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C142" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C143" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C144" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C145" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C146" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C147" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C148" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C149" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C150" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C151" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C152" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C153" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C154" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C155" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C156" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C157" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C158" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C159" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C160" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C161" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C162" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C163" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C164" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
   </sheetData>

--- a/data/vendor_map.xlsx
+++ b/data/vendor_map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\rygarcorp.com\shares\Cornerstone\Dot Com Packing Slips\1-Orders Before Extraction\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB4DF7D4-923C-4CB7-92D6-F0322FE1B63B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5AB0C8A-F2B5-4387-83B3-07D33C45467A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="57600" windowHeight="15555" xr2:uid="{2C04AEF6-1DD2-46BE-907B-9745C127F2C9}"/>
   </bookViews>
@@ -477,12 +477,6 @@
     <t>Handozer</t>
   </si>
   <si>
-    <t>HomeSelects</t>
-  </si>
-  <si>
-    <t>HomeSelects Cabinets</t>
-  </si>
-  <si>
     <t>MMR</t>
   </si>
   <si>
@@ -495,9 +489,6 @@
     <t>Post Protector SBP99</t>
   </si>
   <si>
-    <t>Post Protector Here</t>
-  </si>
-  <si>
     <t>Post Protector</t>
   </si>
   <si>
@@ -568,6 +559,15 @@
   </si>
   <si>
     <t>Model Number</t>
+  </si>
+  <si>
+    <t>Home Selects</t>
+  </si>
+  <si>
+    <t>Zaca</t>
+  </si>
+  <si>
+    <t>Post Protector-Here</t>
   </si>
 </sst>
 </file>
@@ -935,8 +935,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D34B957F-2E4F-4F5D-9C8E-E382ADBC502B}">
   <dimension ref="A1:G164"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="G120" sqref="G120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,30 +948,30 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="D1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E1" t="s">
+        <v>165</v>
+      </c>
+      <c r="F1" t="s">
+        <v>166</v>
+      </c>
+      <c r="G1" t="s">
         <v>167</v>
-      </c>
-      <c r="E1" t="s">
-        <v>168</v>
-      </c>
-      <c r="F1" t="s">
-        <v>169</v>
-      </c>
-      <c r="G1" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>14</v>
@@ -982,7 +982,7 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>15</v>
@@ -993,7 +993,7 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>16</v>
@@ -1004,7 +1004,7 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>17</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>18</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>19</v>
@@ -1037,7 +1037,7 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>20</v>
@@ -1048,7 +1048,7 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>21</v>
@@ -1059,7 +1059,7 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>22</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>23</v>
@@ -1081,7 +1081,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>24</v>
@@ -1092,7 +1092,7 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>25</v>
@@ -1103,7 +1103,7 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>26</v>
@@ -1114,7 +1114,7 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>27</v>
@@ -1125,7 +1125,7 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>28</v>
@@ -1136,7 +1136,7 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>29</v>
@@ -1148,7 +1148,7 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>30</v>
@@ -1159,161 +1159,161 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C19" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C20" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C21" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C23" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C24" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C25" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C26" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>10</v>
       </c>
       <c r="C29" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>11</v>
       </c>
       <c r="C30" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C31" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C32" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>31</v>
@@ -1324,7 +1324,7 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>32</v>
@@ -1335,7 +1335,7 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>33</v>
@@ -1346,7 +1346,7 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>34</v>
@@ -1357,7 +1357,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>35</v>
@@ -1368,7 +1368,7 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>36</v>
@@ -1379,7 +1379,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>37</v>
@@ -1390,7 +1390,7 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>38</v>
@@ -1401,7 +1401,7 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>39</v>
@@ -1412,7 +1412,7 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>40</v>
@@ -1423,7 +1423,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>41</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>42</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>43</v>
@@ -1456,7 +1456,7 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>44</v>
@@ -1467,7 +1467,7 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>45</v>
@@ -1478,7 +1478,7 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>46</v>
@@ -1489,7 +1489,7 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>47</v>
@@ -1500,7 +1500,7 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>48</v>
@@ -1511,7 +1511,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>49</v>
@@ -1522,1245 +1522,1245 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B52" s="1">
         <v>6102</v>
       </c>
       <c r="C52" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B53" s="1">
         <v>6106</v>
       </c>
       <c r="C53" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C54" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C55" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C56" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C57" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>54</v>
       </c>
       <c r="C58" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>55</v>
       </c>
       <c r="C59" t="s">
-        <v>150</v>
+        <v>178</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>56</v>
       </c>
       <c r="C60" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>57</v>
       </c>
       <c r="C61" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>58</v>
       </c>
       <c r="C62" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>59</v>
       </c>
       <c r="C63" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>60</v>
       </c>
       <c r="C64" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>61</v>
       </c>
       <c r="C65" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>62</v>
       </c>
       <c r="C66" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>63</v>
       </c>
       <c r="C67" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C68" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C69" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>66</v>
       </c>
       <c r="C70" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>67</v>
       </c>
       <c r="C71" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>68</v>
       </c>
       <c r="C72" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>69</v>
       </c>
       <c r="C73" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>70</v>
       </c>
       <c r="C74" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="C75" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>71</v>
       </c>
       <c r="C76" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>72</v>
       </c>
       <c r="C77" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C78" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>74</v>
       </c>
       <c r="C79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>75</v>
       </c>
       <c r="C80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>76</v>
       </c>
       <c r="C81" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>77</v>
       </c>
       <c r="C82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="C83" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C84" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>78</v>
       </c>
       <c r="C86" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>79</v>
       </c>
       <c r="C87" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="C88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>80</v>
       </c>
       <c r="C89" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="C90" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C91" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C92" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>83</v>
       </c>
       <c r="C93" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C94" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>85</v>
       </c>
       <c r="C95" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>86</v>
       </c>
       <c r="C96" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>87</v>
       </c>
       <c r="C97" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>88</v>
       </c>
       <c r="C98" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>89</v>
       </c>
       <c r="C99" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>90</v>
       </c>
       <c r="C100" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>91</v>
       </c>
       <c r="C101" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>92</v>
       </c>
       <c r="C102" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>93</v>
       </c>
       <c r="C103" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>94</v>
       </c>
       <c r="C104" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>95</v>
       </c>
       <c r="C105" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>96</v>
       </c>
       <c r="C106" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>97</v>
       </c>
       <c r="C107" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>98</v>
       </c>
       <c r="C108" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>99</v>
       </c>
       <c r="C109" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>100</v>
       </c>
       <c r="C110" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>101</v>
       </c>
       <c r="C111" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>102</v>
       </c>
       <c r="C112" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
+        <v>170</v>
+      </c>
+      <c r="B113" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B113" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C113" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
+        <v>170</v>
+      </c>
+      <c r="B114" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B114" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C114" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
+        <v>170</v>
+      </c>
+      <c r="B115" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B115" s="1" t="s">
-        <v>176</v>
-      </c>
       <c r="C115" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>103</v>
       </c>
       <c r="C116" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C117" t="s">
-        <v>156</v>
+        <v>180</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>104</v>
       </c>
       <c r="C118" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>105</v>
       </c>
       <c r="C119" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B120" s="1">
         <v>4430</v>
       </c>
       <c r="C120" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B121" s="1">
         <v>4442</v>
       </c>
       <c r="C121" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>106</v>
       </c>
       <c r="C122" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>107</v>
       </c>
       <c r="C123" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B124" s="1">
         <v>4642</v>
       </c>
       <c r="C124" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>108</v>
       </c>
       <c r="C125" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B126" s="1">
         <v>4660</v>
       </c>
       <c r="C126" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B127" s="1">
         <v>6630</v>
       </c>
       <c r="C127" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B128" s="1">
         <v>6642</v>
       </c>
       <c r="C128" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>109</v>
       </c>
       <c r="C129" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B130" s="1">
         <v>6660</v>
       </c>
       <c r="C130" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>110</v>
       </c>
       <c r="C131" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B132" s="1">
         <v>8860</v>
       </c>
       <c r="C132" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>111</v>
       </c>
       <c r="C133" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>112</v>
       </c>
       <c r="C134" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>113</v>
       </c>
       <c r="C135" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>114</v>
       </c>
       <c r="C136" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>115</v>
       </c>
       <c r="C137" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>116</v>
       </c>
       <c r="C138" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>117</v>
       </c>
       <c r="C139" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>118</v>
       </c>
       <c r="C140" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>119</v>
       </c>
       <c r="C141" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>120</v>
       </c>
       <c r="C142" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>121</v>
       </c>
       <c r="C143" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>122</v>
       </c>
       <c r="C144" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>123</v>
       </c>
       <c r="C145" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>124</v>
       </c>
       <c r="C146" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>125</v>
       </c>
       <c r="C147" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>126</v>
       </c>
       <c r="C148" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>127</v>
       </c>
       <c r="C149" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>128</v>
       </c>
       <c r="C150" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>129</v>
       </c>
       <c r="C151" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>130</v>
       </c>
       <c r="C152" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>131</v>
       </c>
       <c r="C153" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>132</v>
       </c>
       <c r="C154" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>133</v>
       </c>
       <c r="C155" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>134</v>
       </c>
       <c r="C156" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>135</v>
       </c>
       <c r="C157" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>136</v>
       </c>
       <c r="C158" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>137</v>
       </c>
       <c r="C159" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>138</v>
       </c>
       <c r="C160" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>139</v>
       </c>
       <c r="C161" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>140</v>
       </c>
       <c r="C162" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>141</v>
       </c>
       <c r="C163" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>142</v>
       </c>
       <c r="C164" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
